--- a/DesignerConfigs/Datas/GoodIcon.xlsx
+++ b/DesignerConfigs/Datas/GoodIcon.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -35,6 +35,9 @@
     <t>sn</t>
   </si>
   <si>
+    <t>goodId</t>
+  </si>
+  <si>
     <t>goodPath</t>
   </si>
   <si>
@@ -56,133 +59,136 @@
     <t>##</t>
   </si>
   <si>
+    <t>物品Id</t>
+  </si>
+  <si>
     <t>物品路径</t>
   </si>
   <si>
-    <t>UI/ItemIcon1.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon2.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon3.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon4.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon5.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon6.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon7.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon8.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon9.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon10.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon11.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon12.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon13.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon14.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon15.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon16.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon17.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon18.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon19.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon20.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon21.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon22.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon23.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon24.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon25.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon26.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon27.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon28.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon29.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon30.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon31.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon32.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon33.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon34.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon35.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon36.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon37.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon38.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon39.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon40.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon41.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon42.png</t>
+    <t>UI/ItemIcon/itemIcon1.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon2.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon3.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon4.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon5.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon6.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon7.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon8.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon9.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon10.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon11.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon12.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon13.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon14.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon15.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon16.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon17.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon18.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon19.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon20.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon21.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon22.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon23.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon24.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon25.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon26.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon27.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon28.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon29.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon30.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon31.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon32.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon33.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon34.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon35.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon36.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon37.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon38.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon39.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon40.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon41.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon42.png</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,85 +744,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,19 +1371,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,379 +1393,516 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28">
         <v>22</v>
       </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37">
         <v>31</v>
       </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38">
         <v>32</v>
       </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39">
         <v>33</v>
       </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="C39">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40">
         <v>34</v>
       </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
+      <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41">
         <v>35</v>
       </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42">
         <v>36</v>
       </c>
-      <c r="C42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
+      <c r="C42">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
       <c r="B43">
         <v>37</v>
       </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
+      <c r="C43">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
       <c r="B44">
         <v>38</v>
       </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
+      <c r="C44">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
       <c r="B45">
         <v>39</v>
       </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
+      <c r="C45">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
       <c r="B46">
         <v>40</v>
       </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
       <c r="B47">
         <v>41</v>
       </c>
-      <c r="C47" t="s">
-        <v>51</v>
+      <c r="C47">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/GoodIcon.xlsx
+++ b/DesignerConfigs/Datas/GoodIcon.xlsx
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/DesignerConfigs/Datas/GoodIcon.xlsx
+++ b/DesignerConfigs/Datas/GoodIcon.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -119,33 +119,6 @@
     <t>UI/ItemIcon/itemIcon18.png</t>
   </si>
   <si>
-    <t>UI/ItemIcon/itemIcon19.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon20.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon21.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon22.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon23.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon24.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon25.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon26.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon27.png</t>
-  </si>
-  <si>
     <t>UI/ItemIcon/itemIcon28.png</t>
   </si>
   <si>
@@ -162,30 +135,6 @@
   </si>
   <si>
     <t>UI/ItemIcon/itemIcon33.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon34.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon35.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon36.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon37.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon38.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon39.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon40.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon41.png</t>
   </si>
   <si>
     <t>UI/ItemIcon/itemIcon42.png</t>
@@ -1106,13 +1055,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1371,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1718,193 +1660,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35">
-        <v>29</v>
-      </c>
-      <c r="C35">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37">
-        <v>31</v>
-      </c>
-      <c r="C37">
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38">
-        <v>32</v>
-      </c>
-      <c r="C38">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39">
-        <v>33</v>
-      </c>
-      <c r="C39">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40">
-        <v>34</v>
-      </c>
-      <c r="C40">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41">
-        <v>35</v>
-      </c>
-      <c r="C41">
-        <v>35</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42">
-        <v>36</v>
-      </c>
-      <c r="C42">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43">
-        <v>37</v>
-      </c>
-      <c r="C43">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44">
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45">
-        <v>39</v>
-      </c>
-      <c r="C45">
-        <v>39</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46">
-        <v>40</v>
-      </c>
-      <c r="C46">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47">
-        <v>41</v>
-      </c>
-      <c r="C47">
-        <v>41</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/GoodIcon.xlsx
+++ b/DesignerConfigs/Datas/GoodIcon.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -35,7 +35,7 @@
     <t>sn</t>
   </si>
   <si>
-    <t>goodId</t>
+    <t>priority</t>
   </si>
   <si>
     <t>goodPath</t>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>UI/ItemIcon/itemIcon42.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon19.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon20.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon21.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon22.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon23.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon24.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon25.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon26.png</t>
   </si>
 </sst>
 </file>
@@ -1313,15 +1337,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1401,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1412,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1423,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1434,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1445,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1456,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1467,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1478,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1489,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1500,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1511,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1522,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1533,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1544,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1555,7 +1579,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1566,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1577,7 +1601,7 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1588,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1599,7 +1623,7 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1610,7 +1634,7 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1621,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -1632,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -1643,7 +1667,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -1654,10 +1678,98 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/GoodIcon.xlsx
+++ b/DesignerConfigs/Datas/GoodIcon.xlsx
@@ -26,6 +26,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请务必按照从小到大的顺序由上而下进行排序
+最小层从0开始</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
@@ -59,7 +82,7 @@
     <t>##</t>
   </si>
   <si>
-    <t>物品Id</t>
+    <t>物品优先级</t>
   </si>
   <si>
     <t>物品路径</t>
@@ -174,7 +197,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +355,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1340,12 +1368,12 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1775,5 +1803,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/GoodIcon.xlsx
+++ b/DesignerConfigs/Datas/GoodIcon.xlsx
@@ -26,31 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>请务必按照从小到大的顺序由上而下进行排序
-最小层从0开始</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -58,7 +35,7 @@
     <t>sn</t>
   </si>
   <si>
-    <t>priority</t>
+    <t>type</t>
   </si>
   <si>
     <t>goodPath</t>
@@ -82,7 +59,7 @@
     <t>##</t>
   </si>
   <si>
-    <t>物品优先级</t>
+    <t>物品类型</t>
   </si>
   <si>
     <t>物品路径</t>
@@ -142,6 +119,33 @@
     <t>UI/ItemIcon/itemIcon18.png</t>
   </si>
   <si>
+    <t>UI/ItemIcon/itemIcon19.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon20.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon21.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon22.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon23.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon24.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon25.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon26.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon27.png</t>
+  </si>
+  <si>
     <t>UI/ItemIcon/itemIcon28.png</t>
   </si>
   <si>
@@ -163,28 +167,28 @@
     <t>UI/ItemIcon/itemIcon42.png</t>
   </si>
   <si>
-    <t>UI/ItemIcon/itemIcon19.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon20.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon21.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon22.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon23.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon24.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon25.png</t>
-  </si>
-  <si>
-    <t>UI/ItemIcon/itemIcon26.png</t>
+    <t>UI/ItemIcon/itemIcon34.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon35.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon36.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon37.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon38.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon39.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon40.png</t>
+  </si>
+  <si>
+    <t>UI/ItemIcon/itemIcon41.png</t>
   </si>
 </sst>
 </file>
@@ -197,7 +201,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,11 +359,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1365,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1442,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1453,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1464,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1475,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1486,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1497,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1508,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1519,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1530,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1541,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1552,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1563,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1574,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1585,7 +1584,7 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1596,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1607,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1618,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1629,7 +1628,7 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1640,7 +1639,7 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1651,7 +1650,7 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1662,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1673,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -1684,7 +1683,7 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -1695,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -1706,7 +1705,7 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -1717,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>10003</v>
       </c>
       <c r="D31" t="s">
         <v>37</v>
@@ -1728,7 +1727,7 @@
         <v>26</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>10003</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -1739,7 +1738,7 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>10004</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
@@ -1750,7 +1749,7 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>10004</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -1761,7 +1760,7 @@
         <v>29</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>10004</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -1772,7 +1771,7 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>10004</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
@@ -1783,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>10004</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
@@ -1794,15 +1793,113 @@
         <v>32</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>10004</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>10004</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>10005</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>10005</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>10005</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>10005</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>10005</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>10005</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>10005</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>10005</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>